--- a/Data/Excel/Effect.xlsx
+++ b/Data/Excel/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Effect" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -247,6 +247,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,13 +263,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +277,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,7 +307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,12 +325,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,7 +361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,133 +385,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Data/Excel/Effect.xlsx
+++ b/Data/Excel/Effect.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="6795"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Effect" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>id</t>
   </si>
@@ -99,10 +99,58 @@
     <t>barrackSoliderBullet</t>
   </si>
   <si>
+    <t>箭塔基座</t>
+  </si>
+  <si>
+    <t>arrowTowerBase</t>
+  </si>
+  <si>
+    <t>魔法塔基座</t>
+  </si>
+  <si>
+    <t>mageTowerBase</t>
+  </si>
+  <si>
+    <t>兵营基座</t>
+  </si>
+  <si>
+    <t>barrackTowerBase</t>
+  </si>
+  <si>
+    <t>炮塔基座</t>
+  </si>
+  <si>
+    <t>ArtilleryTowerBase</t>
+  </si>
+  <si>
     <t>闪电</t>
   </si>
   <si>
     <t>lightening</t>
+  </si>
+  <si>
+    <t>闪电选择</t>
+  </si>
+  <si>
+    <t>lightenSelect</t>
+  </si>
+  <si>
+    <t>火雨</t>
+  </si>
+  <si>
+    <t>fireRain</t>
+  </si>
+  <si>
+    <t>火雨选择</t>
+  </si>
+  <si>
+    <t>fireRainSelect</t>
+  </si>
+  <si>
+    <t>塔升级特效</t>
+  </si>
+  <si>
+    <t>towerUpgradeEffect</t>
   </si>
 </sst>
 </file>
@@ -110,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +172,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -131,9 +226,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,8 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,107 +302,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +537,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -524,50 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,23 +1115,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1240,6 +1287,94 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1258,7 +1393,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1267,7 +1402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1275,7 +1410,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Effect.xlsx
+++ b/Data/Excel/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="15255" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Effect" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>id</t>
   </si>
@@ -39,34 +39,40 @@
     <t>arrow</t>
   </si>
   <si>
-    <t>基础魔法弹</t>
-  </si>
-  <si>
-    <t>mageTowerBullet</t>
+    <t>通用魔法弹</t>
+  </si>
+  <si>
+    <t>mageTowerNormalBullet</t>
+  </si>
+  <si>
+    <t>通用魔法弹击中</t>
+  </si>
+  <si>
+    <t>mageTowerNormalHitEffect</t>
   </si>
   <si>
     <t>巫师塔魔法弹</t>
   </si>
   <si>
-    <t>mageTowerNecroBullet</t>
+    <t>necromancerBullet</t>
   </si>
   <si>
     <t>巫师塔魔法弹击中</t>
   </si>
   <si>
-    <t>mageTowerNecroHitEffect</t>
+    <t>necromancerHitEffect</t>
   </si>
   <si>
     <t>大法师塔魔法弹</t>
   </si>
   <si>
-    <t>mageTowerMasterBullet</t>
+    <t>mageTowerMasterBullet1</t>
   </si>
   <si>
     <t>大法师塔魔法弹击中</t>
   </si>
   <si>
-    <t>mageTowerMasterHitEffect</t>
+    <t>mageTowerMasterHitEffect1</t>
   </si>
   <si>
     <t>大法师塔传送小型</t>
@@ -158,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,31 +178,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,106 +299,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +522,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,48 +614,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -586,36 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,22 +1121,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A3" sqref="A3:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1375,6 +1382,17 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1393,7 +1411,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1402,7 +1420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1410,7 +1428,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Effect.xlsx
+++ b/Data/Excel/Effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="7320"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Effect" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pixar</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>pixar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0-不循环，特效结束删除
+1-循环，特效重复播放
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +59,9 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>loop</t>
   </si>
   <si>
     <t>int</t>
@@ -164,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,6 +215,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -185,6 +231,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -192,13 +298,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -207,8 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,101 +344,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,17 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,27 +588,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +612,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,17 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,28 +1158,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,38 +1188,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1191,21 +1239,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1213,21 +1264,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,10 +1289,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1246,10 +1300,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1257,21 +1311,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1279,10 +1336,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1290,54 +1347,66 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1345,21 +1414,24 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1367,21 +1439,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1389,21 +1464,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1411,7 +1487,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1420,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1428,7 +1504,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
